--- a/data/trans_orig/Predimed_R-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/Predimed_R-Habitat-trans_orig.xlsx
@@ -741,19 +741,19 @@
         <v>134714</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>113983</v>
+        <v>115705</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>155979</v>
+        <v>157903</v>
       </c>
       <c r="G4" s="6" t="n">
-        <v>0.2151944302968852</v>
+        <v>0.2151944302968853</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.1820783665501548</v>
+        <v>0.1848295071227382</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.2491642734071621</v>
+        <v>0.2522368726035581</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>259</v>
@@ -762,19 +762,19 @@
         <v>149597</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>132441</v>
+        <v>133124</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>168635</v>
+        <v>168520</v>
       </c>
       <c r="N4" s="6" t="n">
-        <v>0.2208044726822493</v>
+        <v>0.2208044726822492</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.1954818433429239</v>
+        <v>0.1964899008026967</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.2489042385460321</v>
+        <v>0.2487347300043672</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>409</v>
@@ -783,19 +783,19 @@
         <v>284310</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>258761</v>
+        <v>258334</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>313282</v>
+        <v>311955</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.2181102742440303</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.198510012814397</v>
+        <v>0.1981826396755641</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.2403357136717677</v>
+        <v>0.2393176440635953</v>
       </c>
     </row>
     <row r="5">
@@ -812,19 +812,19 @@
         <v>491295</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>470030</v>
+        <v>468106</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>512026</v>
+        <v>510304</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.7848055697031148</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.7508357265928377</v>
+        <v>0.7477631273964416</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.8179216334498449</v>
+        <v>0.8151704928772615</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>891</v>
@@ -833,19 +833,19 @@
         <v>527912</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>508874</v>
+        <v>508989</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>545068</v>
+        <v>544385</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.7791955273177507</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.7510957614539677</v>
+        <v>0.7512652699956327</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.8045181566570759</v>
+        <v>0.8035100991973032</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>1421</v>
@@ -854,19 +854,19 @@
         <v>1019207</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>990235</v>
+        <v>991562</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>1044756</v>
+        <v>1045183</v>
       </c>
       <c r="U5" s="6" t="n">
-        <v>0.7818897257559698</v>
+        <v>0.7818897257559697</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.759664286328232</v>
+        <v>0.7606823559364049</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.801489987185603</v>
+        <v>0.801817360324436</v>
       </c>
     </row>
     <row r="6">
@@ -958,19 +958,19 @@
         <v>151821</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>130461</v>
+        <v>128462</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>181407</v>
+        <v>180704</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.1565337497588745</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.1345111757957917</v>
+        <v>0.1324500955646938</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.1870381943880147</v>
+        <v>0.1863129643905973</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>242</v>
@@ -979,19 +979,19 @@
         <v>168365</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>147543</v>
+        <v>147750</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>191271</v>
+        <v>190652</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.1695169931835321</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.1485526212352154</v>
+        <v>0.1487615905764892</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.1925796523754187</v>
+        <v>0.1919565536564361</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>382</v>
@@ -1000,19 +1000,19 @@
         <v>320186</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>287902</v>
+        <v>288935</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>356806</v>
+        <v>357412</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.1631024539740762</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.146656999904484</v>
+        <v>0.1471835650397583</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.1817566701803469</v>
+        <v>0.1820652699822046</v>
       </c>
     </row>
     <row r="8">
@@ -1029,19 +1029,19 @@
         <v>818072</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>788486</v>
+        <v>789189</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>839432</v>
+        <v>841431</v>
       </c>
       <c r="G8" s="6" t="n">
-        <v>0.8434662502411254</v>
+        <v>0.8434662502411256</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.8129618056119853</v>
+        <v>0.8136870356094026</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.8654888242042081</v>
+        <v>0.8675499044353067</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>1173</v>
@@ -1050,19 +1050,19 @@
         <v>824838</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>801932</v>
+        <v>802551</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>845660</v>
+        <v>845453</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.8304830068164679</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.8074203476245811</v>
+        <v>0.8080434463435638</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.8514473787647844</v>
+        <v>0.8512384094235105</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>1938</v>
@@ -1071,19 +1071,19 @@
         <v>1642910</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>1606290</v>
+        <v>1605684</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>1675194</v>
+        <v>1674161</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.8368975460259237</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.818243329819653</v>
+        <v>0.8179347300177956</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.853343000095516</v>
+        <v>0.852816434960242</v>
       </c>
     </row>
     <row r="9">
@@ -1175,19 +1175,19 @@
         <v>127078</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>105818</v>
+        <v>104409</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>150561</v>
+        <v>151409</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.1742080077927486</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.145062087384007</v>
+        <v>0.1431305534433046</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.206398937782775</v>
+        <v>0.2075619630352827</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>183</v>
@@ -1196,19 +1196,19 @@
         <v>136809</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>118537</v>
+        <v>117100</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>156468</v>
+        <v>157082</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.1805266543946876</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.1564153700477855</v>
+        <v>0.154519544174979</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.2064668257583898</v>
+        <v>0.207277296134369</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>299</v>
@@ -1217,19 +1217,19 @@
         <v>263888</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>233295</v>
+        <v>235815</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>298481</v>
+        <v>299428</v>
       </c>
       <c r="U10" s="6" t="n">
-        <v>0.1774275959514708</v>
+        <v>0.1774275959514707</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.1568582185408738</v>
+        <v>0.1585523104391575</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.2006868848327608</v>
+        <v>0.2013235919194018</v>
       </c>
     </row>
     <row r="11">
@@ -1246,19 +1246,19 @@
         <v>602386</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>578903</v>
+        <v>578055</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>623646</v>
+        <v>625055</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.8257919922072514</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.793601062217225</v>
+        <v>0.7924380369647174</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.8549379126159932</v>
+        <v>0.8568694465566955</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>803</v>
@@ -1267,19 +1267,19 @@
         <v>621025</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>601366</v>
+        <v>600752</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>639297</v>
+        <v>640734</v>
       </c>
       <c r="N11" s="6" t="n">
-        <v>0.8194733456053123</v>
+        <v>0.8194733456053124</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.7935331742416103</v>
+        <v>0.792722703865631</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.8435846299522143</v>
+        <v>0.845480455825021</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>1311</v>
@@ -1288,19 +1288,19 @@
         <v>1223410</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>1188817</v>
+        <v>1187870</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>1254003</v>
+        <v>1251483</v>
       </c>
       <c r="U11" s="6" t="n">
-        <v>0.8225724040485293</v>
+        <v>0.8225724040485292</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.7993131151672391</v>
+        <v>0.7986764080805981</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.8431417814591263</v>
+        <v>0.8414476895608424</v>
       </c>
     </row>
     <row r="12">
@@ -1392,19 +1392,19 @@
         <v>163862</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>139383</v>
+        <v>139378</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>187295</v>
+        <v>188078</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.172137316243104</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.1464217869214119</v>
+        <v>0.1464171250797973</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.19675345698288</v>
+        <v>0.1975764370835285</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>303</v>
@@ -1413,19 +1413,19 @@
         <v>209416</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>189954</v>
+        <v>187305</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>234345</v>
+        <v>235174</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.1933650152649546</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.1753946012254177</v>
+        <v>0.1729491322672303</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.2163833648144584</v>
+        <v>0.2171491866707487</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>469</v>
@@ -1434,19 +1434,19 @@
         <v>373278</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>337277</v>
+        <v>339037</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>406537</v>
+        <v>408321</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.183434866107205</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.1657435878740512</v>
+        <v>0.16660832079014</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.1997790096824041</v>
+        <v>0.2006556733344633</v>
       </c>
     </row>
     <row r="14">
@@ -1463,19 +1463,19 @@
         <v>788064</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>764631</v>
+        <v>763848</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>812543</v>
+        <v>812548</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>0.827862683756896</v>
+        <v>0.8278626837568959</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.8032465430171202</v>
+        <v>0.8024235629164715</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.8535782130785883</v>
+        <v>0.8535828749202028</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>1211</v>
@@ -1484,19 +1484,19 @@
         <v>873592</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>848663</v>
+        <v>847834</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>893054</v>
+        <v>895703</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.8066349847350454</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.7836166351855416</v>
+        <v>0.7828508133292512</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.8246053987745821</v>
+        <v>0.8270508677327697</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>2013</v>
@@ -1505,19 +1505,19 @@
         <v>1661656</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>1628397</v>
+        <v>1626613</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>1697657</v>
+        <v>1695897</v>
       </c>
       <c r="U14" s="6" t="n">
-        <v>0.8165651338927949</v>
+        <v>0.8165651338927951</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.8002209903175959</v>
+        <v>0.7993443266655368</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.8342564121259488</v>
+        <v>0.8333916792098599</v>
       </c>
     </row>
     <row r="15">
@@ -1609,19 +1609,19 @@
         <v>577475</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>530862</v>
+        <v>530162</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>626888</v>
+        <v>632006</v>
       </c>
       <c r="G16" s="6" t="n">
-        <v>0.1762049522524151</v>
+        <v>0.176204952252415</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.1619818452644344</v>
+        <v>0.1617682454718691</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.1912824407906903</v>
+        <v>0.1928439616915051</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>987</v>
@@ -1630,19 +1630,19 @@
         <v>664187</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>625876</v>
+        <v>625142</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>709868</v>
+        <v>707981</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.1891432948173653</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.1782333375836077</v>
+        <v>0.1780243308393723</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.2021520911359051</v>
+        <v>0.2016148370559475</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>1559</v>
@@ -1651,19 +1651,19 @@
         <v>1241662</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>1180706</v>
+        <v>1181721</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>1306025</v>
+        <v>1306473</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.1828973555378529</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.1739184650229608</v>
+        <v>0.1740681097043225</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.1923780378109735</v>
+        <v>0.192444072712786</v>
       </c>
     </row>
     <row r="17">
@@ -1680,19 +1680,19 @@
         <v>2699816</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>2650403</v>
+        <v>2645285</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>2746429</v>
+        <v>2747129</v>
       </c>
       <c r="G17" s="6" t="n">
-        <v>0.8237950477475849</v>
+        <v>0.8237950477475852</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.8087175592093095</v>
+        <v>0.807156038308494</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.8380181547355652</v>
+        <v>0.8382317545281305</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>4078</v>
@@ -1701,19 +1701,19 @@
         <v>2847367</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>2801686</v>
+        <v>2803573</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>2885678</v>
+        <v>2886412</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.8108567051826348</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.797847908864095</v>
+        <v>0.7983851629440524</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.8217666624163923</v>
+        <v>0.8219756691606278</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>6683</v>
@@ -1722,19 +1722,19 @@
         <v>5547183</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>5482820</v>
+        <v>5482372</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>5608139</v>
+        <v>5607124</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.8171026444621471</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.8076219621890268</v>
+        <v>0.807555927287214</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.8260815349770394</v>
+        <v>0.8259318902956774</v>
       </c>
     </row>
     <row r="18">
